--- a/backend/auxiliar/LIGHT_2025-02-26_20-13-31_L_1x1_-10.00_3.00s_0000.astropy-units.xlsx
+++ b/backend/auxiliar/LIGHT_2025-02-26_20-13-31_L_1x1_-10.00_3.00s_0000.astropy-units.xlsx
@@ -716,16 +716,16 @@
         <v>0.05671139114109599</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.6460783414382689</v>
+        <v>-5.389228604713026e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>1.273124335051262</v>
+        <v>-1.777760231735925e-05</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.01127619428392191</v>
+        <v>-9.405978329490228e-08</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.02222021143390797</v>
+        <v>-3.102776935480928e-07</v>
       </c>
     </row>
     <row r="3">
@@ -839,16 +839,16 @@
         <v>0.09099956966032466</v>
       </c>
       <c r="AF3" t="n">
-        <v>-0.584162294003832</v>
+        <v>0.0001562398980325952</v>
       </c>
       <c r="AG3" t="n">
-        <v>1.253929088139105</v>
+        <v>0.0001237796038484618</v>
       </c>
       <c r="AH3" t="n">
-        <v>-0.01019555539637</v>
+        <v>2.726900643648997e-06</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.02188519117455755</v>
+        <v>2.160361633969902e-06</v>
       </c>
     </row>
     <row r="4">
@@ -962,16 +962,16 @@
         <v>0.09671677999098448</v>
       </c>
       <c r="AF4" t="n">
-        <v>-2.806600186250904</v>
+        <v>5.124683426060983e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>1.21103636629209</v>
+        <v>-3.252834425460094e-05</v>
       </c>
       <c r="AH4" t="n">
-        <v>-0.04898441403716436</v>
+        <v>8.944259890714754e-08</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.02113657195318504</v>
+        <v>-5.677267074649671e-07</v>
       </c>
     </row>
     <row r="5">
@@ -1085,16 +1085,16 @@
         <v>0.05831167681925516</v>
       </c>
       <c r="AF5" t="n">
-        <v>-1.293830307926584</v>
+        <v>5.512698855625331e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>1.235185942373776</v>
+        <v>-0.0001353706841280555</v>
       </c>
       <c r="AH5" t="n">
-        <v>-0.02258159883541097</v>
+        <v>9.621474570158554e-07</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.02155806156877133</v>
+        <v>-2.362664148711798e-06</v>
       </c>
     </row>
     <row r="6">
@@ -1208,16 +1208,16 @@
         <v>0.07878145915183497</v>
       </c>
       <c r="AF6" t="n">
-        <v>-0.5913922529188937</v>
+        <v>4.34363420254158e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>1.253012622207588</v>
+        <v>-2.581056363304413e-06</v>
       </c>
       <c r="AH6" t="n">
-        <v>-0.01032174198422174</v>
+        <v>7.581071833658882e-08</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.02186919582657023</v>
+        <v>-4.504793171921295e-08</v>
       </c>
     </row>
     <row r="7">
@@ -1331,16 +1331,16 @@
         <v>0.06572868252178915</v>
       </c>
       <c r="AF7" t="n">
-        <v>-1.384017888843061</v>
+        <v>4.630711065090054e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>1.235424779745282</v>
+        <v>7.675700004217134e-05</v>
       </c>
       <c r="AH7" t="n">
-        <v>-0.02415566906681231</v>
+        <v>8.082115479435489e-07</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.02156223006728092</v>
+        <v>1.339662374689316e-06</v>
       </c>
     </row>
     <row r="8">
@@ -1454,16 +1454,16 @@
         <v>0.0690816621215108</v>
       </c>
       <c r="AF8" t="n">
-        <v>-0.5611390611826721</v>
+        <v>-6.822983223742085e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>1.252320117132137</v>
+        <v>7.584431349227927e-05</v>
       </c>
       <c r="AH8" t="n">
-        <v>-0.009793724179187533</v>
+        <v>-1.190835220626363e-07</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.02185710933291685</v>
+        <v>1.323732989355032e-06</v>
       </c>
     </row>
     <row r="9">
@@ -1577,16 +1577,16 @@
         <v>0.08623800813710575</v>
       </c>
       <c r="AF9" t="n">
-        <v>-2.877319464542055</v>
+        <v>8.56496544656693e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>1.209333697394299</v>
+        <v>-3.19439680058764e-05</v>
       </c>
       <c r="AH9" t="n">
-        <v>-0.05021869828797909</v>
+        <v>1.494868473621394e-06</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.02110685477484729</v>
+        <v>-5.575274178542705e-07</v>
       </c>
     </row>
     <row r="10">
@@ -1700,16 +1700,16 @@
         <v>0.05702158426868609</v>
       </c>
       <c r="AF10" t="n">
-        <v>-0.7324705426582483</v>
+        <v>-4.386145651835704e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>1.246356377381647</v>
+        <v>0.0002544637782517789</v>
       </c>
       <c r="AH10" t="n">
-        <v>-0.01278402264325601</v>
+        <v>-7.655268309656591e-07</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.02175302243853872</v>
+        <v>4.441230757558282e-06</v>
       </c>
     </row>
     <row r="11">
@@ -1823,16 +1823,16 @@
         <v>0.05853771415438073</v>
       </c>
       <c r="AF11" t="n">
-        <v>-1.726303695901308</v>
+        <v>-1.449225119642961e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>1.226825793379177</v>
+        <v>-8.437436580521762e-07</v>
       </c>
       <c r="AH11" t="n">
-        <v>-0.03012968338282476</v>
+        <v>-2.529374994037841e-07</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.02141214944285828</v>
+        <v>-1.472610487583164e-08</v>
       </c>
     </row>
     <row r="12">
@@ -1946,16 +1946,16 @@
         <v>0.09067750681894803</v>
       </c>
       <c r="AF12" t="n">
-        <v>-2.895973311882713</v>
+        <v>-7.470480275628688e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>1.209336735603929</v>
+        <v>5.878220435562298e-05</v>
       </c>
       <c r="AH12" t="n">
-        <v>-0.05054426934223796</v>
+        <v>-1.303844775150141e-06</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.02110690780160869</v>
+        <v>1.025943007585773e-06</v>
       </c>
     </row>
     <row r="13">
@@ -2069,16 +2069,16 @@
         <v>0.08716033059525964</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.5626462385532562</v>
+        <v>2.975008300154514e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>1.275871675301222</v>
+        <v>1.315898747300537e-06</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.009820029386715778</v>
+        <v>5.192369011185599e-07</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.02226816156694234</v>
+        <v>2.296676576326321e-08</v>
       </c>
     </row>
     <row r="14">
@@ -2192,16 +2192,16 @@
         <v>0.07179997926257141</v>
       </c>
       <c r="AF14" t="n">
-        <v>-1.69667783147024</v>
+        <v>-6.342351402111035e-05</v>
       </c>
       <c r="AG14" t="n">
-        <v>1.230343954779804</v>
+        <v>-3.033503335725385e-05</v>
       </c>
       <c r="AH14" t="n">
-        <v>-0.02961261450475314</v>
+        <v>-1.106949142853164e-06</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.02147355294291581</v>
+        <v>-5.29446210786389e-07</v>
       </c>
     </row>
     <row r="15">
@@ -2315,16 +2315,16 @@
         <v>0.09051462792032809</v>
       </c>
       <c r="AF15" t="n">
-        <v>-0.4192134906426617</v>
+        <v>-0.0001020770944109017</v>
       </c>
       <c r="AG15" t="n">
-        <v>1.25695117849087</v>
+        <v>-5.43551590688196e-05</v>
       </c>
       <c r="AH15" t="n">
-        <v>-0.007316655680492886</v>
+        <v>-1.781581388339337e-06</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.02193793660148862</v>
+        <v>-9.486764911961571e-07</v>
       </c>
     </row>
     <row r="16">
@@ -2438,16 +2438,16 @@
         <v>0.06152343158141597</v>
       </c>
       <c r="AF16" t="n">
-        <v>-2.332863237037429</v>
+        <v>-1.621439918153555e-05</v>
       </c>
       <c r="AG16" t="n">
-        <v>1.215731706770028</v>
+        <v>1.766332894037603e-05</v>
       </c>
       <c r="AH16" t="n">
-        <v>-0.04071614448503607</v>
+        <v>-2.829946519504692e-07</v>
       </c>
       <c r="AI16" t="n">
-        <v>0.02121852110402723</v>
+        <v>3.08283246872363e-07</v>
       </c>
     </row>
     <row r="17">
@@ -2561,16 +2561,16 @@
         <v>0.08610034022987807</v>
       </c>
       <c r="AF17" t="n">
-        <v>-0.3290434999868523</v>
+        <v>-6.163220461985475e-05</v>
       </c>
       <c r="AG17" t="n">
-        <v>1.258659643294481</v>
+        <v>6.955269239661277e-06</v>
       </c>
       <c r="AH17" t="n">
-        <v>-0.005742892457056492</v>
+        <v>-1.075684895879325e-06</v>
       </c>
       <c r="AI17" t="n">
-        <v>0.02196775493746606</v>
+        <v>1.213923485947718e-07</v>
       </c>
     </row>
     <row r="18">
@@ -2684,16 +2684,16 @@
         <v>0.05766285166201699</v>
       </c>
       <c r="AF18" t="n">
-        <v>-0.6539747465998005</v>
+        <v>1.703056024382477e-05</v>
       </c>
       <c r="AG18" t="n">
-        <v>1.247659169301853</v>
+        <v>-0.0001763776441561227</v>
       </c>
       <c r="AH18" t="n">
-        <v>-0.01141401255306211</v>
+        <v>2.972393497139904e-07</v>
       </c>
       <c r="AI18" t="n">
-        <v>0.02177576044701469</v>
+        <v>-3.078370617435276e-06</v>
       </c>
     </row>
     <row r="19">
@@ -2807,16 +2807,16 @@
         <v>0.07535857291418721</v>
       </c>
       <c r="AF19" t="n">
-        <v>-0.5250736072367062</v>
+        <v>-1.028692199156467e-05</v>
       </c>
       <c r="AG19" t="n">
-        <v>1.253857026262055</v>
+        <v>-6.264204433747977e-05</v>
       </c>
       <c r="AH19" t="n">
-        <v>-0.009164263261604046</v>
+        <v>-1.795406586486158e-07</v>
       </c>
       <c r="AI19" t="n">
-        <v>0.02188393345753787</v>
+        <v>-1.093309923869292e-06</v>
       </c>
     </row>
     <row r="20">
@@ -2930,16 +2930,16 @@
         <v>0.08495874415087883</v>
       </c>
       <c r="AF20" t="n">
-        <v>-0.1527392957593037</v>
+        <v>-4.43029632890557e-05</v>
       </c>
       <c r="AG20" t="n">
-        <v>1.261957643375241</v>
+        <v>-6.752761438466592e-05</v>
       </c>
       <c r="AH20" t="n">
-        <v>-0.002665803608177262</v>
+        <v>-7.732325777841981e-07</v>
       </c>
       <c r="AI20" t="n">
-        <v>0.02202531589760636</v>
+        <v>-1.178579207029505e-06</v>
       </c>
     </row>
     <row r="21">
@@ -3053,16 +3053,16 @@
         <v>0.09719331433801075</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.725709735389529</v>
+        <v>-7.344899216832346e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>1.278707191239773</v>
+        <v>-1.79581201118495e-05</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.0126660242963241</v>
+        <v>-1.281926745608773e-07</v>
       </c>
       <c r="AI21" t="n">
-        <v>0.02231765065606283</v>
+        <v>-3.134283234203861e-07</v>
       </c>
     </row>
     <row r="22">
@@ -3176,16 +3176,16 @@
         <v>0.08529796994098801</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.719299993154209</v>
+        <v>-6.752487379912964e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>1.27885152902415</v>
+        <v>4.141845690064372e-05</v>
       </c>
       <c r="AH22" t="n">
-        <v>0.01255415319011362</v>
+        <v>-1.178531374788464e-07</v>
       </c>
       <c r="AI22" t="n">
-        <v>0.02232016982563525</v>
+        <v>7.228884440115987e-07</v>
       </c>
     </row>
     <row r="23">
@@ -3299,16 +3299,16 @@
         <v>0.0797916416588958</v>
       </c>
       <c r="AF23" t="n">
-        <v>-0.2362261616371342</v>
+        <v>2.324642542816946e-05</v>
       </c>
       <c r="AG23" t="n">
-        <v>1.259985817757968</v>
+        <v>-6.342008811088817e-05</v>
       </c>
       <c r="AH23" t="n">
-        <v>-0.00412292429991631</v>
+        <v>4.057266630408897e-07</v>
       </c>
       <c r="AI23" t="n">
-        <v>0.02199090104830979</v>
+        <v>-1.106889349439909e-06</v>
       </c>
     </row>
     <row r="24">
@@ -3422,16 +3422,16 @@
         <v>0.07819980551792095</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.1656594884650673</v>
+        <v>3.448616863011011e-05</v>
       </c>
       <c r="AG24" t="n">
-        <v>1.267750897283507</v>
+        <v>3.668124846978316e-05</v>
       </c>
       <c r="AH24" t="n">
-        <v>0.002891303510884991</v>
+        <v>6.018971889934039e-07</v>
       </c>
       <c r="AI24" t="n">
-        <v>0.02212642725270962</v>
+        <v>6.402085595398478e-07</v>
       </c>
     </row>
   </sheetData>

--- a/backend/auxiliar/LIGHT_2025-02-26_20-13-31_L_1x1_-10.00_3.00s_0000.astropy-units.xlsx
+++ b/backend/auxiliar/LIGHT_2025-02-26_20-13-31_L_1x1_-10.00_3.00s_0000.astropy-units.xlsx
@@ -639,10 +639,10 @@
         <v>8.712867134704891e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>4462.55859375</v>
+        <v>2134.55859375</v>
       </c>
       <c r="L2" t="n">
-        <v>263.0120544433594</v>
+        <v>1496.987945556641</v>
       </c>
       <c r="M2" t="n">
         <v>113.2985640287234</v>
@@ -762,10 +762,10 @@
         <v>0.0002585559990052329</v>
       </c>
       <c r="K3" t="n">
-        <v>823.2440185546875</v>
+        <v>-1504.755981445312</v>
       </c>
       <c r="L3" t="n">
-        <v>1393.7138671875</v>
+        <v>366.2861328125</v>
       </c>
       <c r="M3" t="n">
         <v>112.6398149885418</v>
@@ -885,10 +885,10 @@
         <v>0.0002031368520352168</v>
       </c>
       <c r="K4" t="n">
-        <v>176.3401031494141</v>
+        <v>-2151.659896850586</v>
       </c>
       <c r="L4" t="n">
-        <v>3433.68017578125</v>
+        <v>-1673.68017578125</v>
       </c>
       <c r="M4" t="n">
         <v>111.5189388542883</v>
@@ -1008,10 +1008,10 @@
         <v>0.0002018441400843404</v>
       </c>
       <c r="K5" t="n">
-        <v>4258.056640625</v>
+        <v>1930.056640625</v>
       </c>
       <c r="L5" t="n">
-        <v>2049.2919921875</v>
+        <v>-289.2919921875</v>
       </c>
       <c r="M5" t="n">
         <v>112.3245815814763</v>
@@ -1131,10 +1131,10 @@
         <v>0.0002730856062307923</v>
       </c>
       <c r="K6" t="n">
-        <v>2111.510009765625</v>
+        <v>-216.489990234375</v>
       </c>
       <c r="L6" t="n">
-        <v>1400.789306640625</v>
+        <v>359.210693359375</v>
       </c>
       <c r="M6" t="n">
         <v>112.6516816607823</v>
@@ -1254,10 +1254,10 @@
         <v>0.0002399503448557649</v>
       </c>
       <c r="K7" t="n">
-        <v>3473.795654296875</v>
+        <v>1145.795654296875</v>
       </c>
       <c r="L7" t="n">
-        <v>2130.979736328125</v>
+        <v>-370.979736328125</v>
       </c>
       <c r="M7" t="n">
         <v>112.2706135994197</v>
@@ -1377,10 +1377,10 @@
         <v>8.969587818480657e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>3135.221435546875</v>
+        <v>807.221435546875</v>
       </c>
       <c r="L8" t="n">
-        <v>1373.643310546875</v>
+        <v>386.356689453125</v>
       </c>
       <c r="M8" t="n">
         <v>112.6787900845986</v>
@@ -1500,10 +1500,10 @@
         <v>0.0001603353671634599</v>
       </c>
       <c r="K9" t="n">
-        <v>1281.180908203125</v>
+        <v>-1046.819091796875</v>
       </c>
       <c r="L9" t="n">
-        <v>3500.415771484375</v>
+        <v>-1740.415771484375</v>
       </c>
       <c r="M9" t="n">
         <v>111.4970313576167</v>
@@ -1623,10 +1623,10 @@
         <v>0.0002897822348221619</v>
       </c>
       <c r="K10" t="n">
-        <v>4405.34716796875</v>
+        <v>2077.34716796875</v>
       </c>
       <c r="L10" t="n">
-        <v>1532.468994140625</v>
+        <v>227.531005859375</v>
       </c>
       <c r="M10" t="n">
         <v>112.607479836876</v>
@@ -1746,10 +1746,10 @@
         <v>0.0001834280081532353</v>
       </c>
       <c r="K11" t="n">
-        <v>4226.46484375</v>
+        <v>1898.46484375</v>
       </c>
       <c r="L11" t="n">
-        <v>2447.470458984375</v>
+        <v>-687.470458984375</v>
       </c>
       <c r="M11" t="n">
         <v>112.107586711631</v>
@@ -1869,10 +1869,10 @@
         <v>0.0001718244480421905</v>
       </c>
       <c r="K12" t="n">
-        <v>812.3826293945312</v>
+        <v>-1515.617370605469</v>
       </c>
       <c r="L12" t="n">
-        <v>3516.6201171875</v>
+        <v>-1756.6201171875</v>
       </c>
       <c r="M12" t="n">
         <v>111.4820680783933</v>
@@ -1992,10 +1992,10 @@
         <v>3.547798589106148e-05</v>
       </c>
       <c r="K13" t="n">
-        <v>1248.20654296875</v>
+        <v>-1079.79345703125</v>
       </c>
       <c r="L13" t="n">
-        <v>340.8597106933594</v>
+        <v>1419.140289306641</v>
       </c>
       <c r="M13" t="n">
         <v>113.2189414444577</v>
@@ -2115,10 +2115,10 @@
         <v>0.0005608328667471822</v>
       </c>
       <c r="K14" t="n">
-        <v>2827.19580078125</v>
+        <v>499.19580078125</v>
       </c>
       <c r="L14" t="n">
-        <v>2417.429931640625</v>
+        <v>-657.429931640625</v>
       </c>
       <c r="M14" t="n">
         <v>112.1067059307309</v>
@@ -2238,10 +2238,10 @@
         <v>9.892854331380239e-05</v>
       </c>
       <c r="K15" t="n">
-        <v>877.0796508789062</v>
+        <v>-1450.920349121094</v>
       </c>
       <c r="L15" t="n">
-        <v>1242.092041015625</v>
+        <v>517.907958984375</v>
       </c>
       <c r="M15" t="n">
         <v>112.7231542747855</v>
@@ -2361,10 +2361,10 @@
         <v>7.460418555727825e-05</v>
       </c>
       <c r="K16" t="n">
-        <v>3899.980712890625</v>
+        <v>1571.980712890625</v>
       </c>
       <c r="L16" t="n">
-        <v>3005.3759765625</v>
+        <v>-1245.3759765625</v>
       </c>
       <c r="M16" t="n">
         <v>111.8000259746439</v>
@@ -2484,10 +2484,10 @@
         <v>0.0001655097057222719</v>
       </c>
       <c r="K17" t="n">
-        <v>1344.44775390625</v>
+        <v>-983.55224609375</v>
       </c>
       <c r="L17" t="n">
-        <v>1159.471557617188</v>
+        <v>600.5284423828125</v>
       </c>
       <c r="M17" t="n">
         <v>112.7738902423979</v>
@@ -2607,10 +2607,10 @@
         <v>0.000227012889692153</v>
       </c>
       <c r="K18" t="n">
-        <v>4338.25927734375</v>
+        <v>2010.25927734375</v>
       </c>
       <c r="L18" t="n">
-        <v>1460.16796875</v>
+        <v>299.83203125</v>
       </c>
       <c r="M18" t="n">
         <v>112.6460137654644</v>
@@ -2730,10 +2730,10 @@
         <v>0.0002828491684827855</v>
       </c>
       <c r="K19" t="n">
-        <v>2473.578125</v>
+        <v>145.578125</v>
       </c>
       <c r="L19" t="n">
-        <v>1340.049926757812</v>
+        <v>419.9500732421875</v>
       </c>
       <c r="M19" t="n">
         <v>112.6891423602723</v>
@@ -2853,10 +2853,10 @@
         <v>0.0001245146752980504</v>
       </c>
       <c r="K20" t="n">
-        <v>1467.872192382812</v>
+        <v>-860.1278076171875</v>
       </c>
       <c r="L20" t="n">
-        <v>997.6357421875</v>
+        <v>762.3642578125</v>
       </c>
       <c r="M20" t="n">
         <v>112.8635937312331</v>
@@ -2976,10 +2976,10 @@
         <v>0.0001968675922833612</v>
       </c>
       <c r="K21" t="n">
-        <v>192.0649719238281</v>
+        <v>-2135.935028076172</v>
       </c>
       <c r="L21" t="n">
-        <v>191.5017547607422</v>
+        <v>1568.498245239258</v>
       </c>
       <c r="M21" t="n">
         <v>113.2878395207585</v>
@@ -3099,10 +3099,10 @@
         <v>7.675324094778816e-05</v>
       </c>
       <c r="K22" t="n">
-        <v>1447.376708984375</v>
+        <v>-880.623291015625</v>
       </c>
       <c r="L22" t="n">
-        <v>196.9031677246094</v>
+        <v>1563.096832275391</v>
       </c>
       <c r="M22" t="n">
         <v>113.2997432194782</v>
@@ -3222,10 +3222,10 @@
         <v>7.950868277056286e-05</v>
       </c>
       <c r="K23" t="n">
-        <v>2011.3095703125</v>
+        <v>-316.6904296875</v>
       </c>
       <c r="L23" t="n">
-        <v>1074.494750976562</v>
+        <v>685.5052490234375</v>
       </c>
       <c r="M23" t="n">
         <v>112.8282464976539</v>
@@ -3345,10 +3345,10 @@
         <v>0.0001661835130992056</v>
       </c>
       <c r="K24" t="n">
-        <v>2186.514892578125</v>
+        <v>-141.485107421875</v>
       </c>
       <c r="L24" t="n">
-        <v>705.3323364257812</v>
+        <v>1054.667663574219</v>
       </c>
       <c r="M24" t="n">
         <v>113.0314471613248</v>
